--- a/doc/Results/AlexNet_CIFAR10_PS2.xlsx
+++ b/doc/Results/AlexNet_CIFAR10_PS2.xlsx
@@ -1222,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455771688"/>
-        <c:axId val="455772080"/>
+        <c:axId val="414912232"/>
+        <c:axId val="414914584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455771688"/>
+        <c:axId val="414912232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1341,12 +1341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455772080"/>
+        <c:crossAx val="414914584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455772080"/>
+        <c:axId val="414914584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35000000000000003"/>
@@ -1460,7 +1460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455771688"/>
+        <c:crossAx val="414912232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1650,7 +1650,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1661,11 +1661,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2264,6 +2264,358 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Uniform Filters'!$B$2:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Uniform Filters'!$E$2:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.41024144345238001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40796995907737998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40478887648809497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.404586867559523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.372921037946428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37236281622023798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37236281622023798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.368317522321428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.368674665178571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.364460379464285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34821456473214202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34821456473214202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34673074776785701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34433807663690402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.342974981398809</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34277334449404701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34219038318452299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34252483258928501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34240466889880899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33905217633928503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27663327752976102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27451729910714201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27366610863095198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27236086309523799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27116899181547599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27078915550595201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27054817708333301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27116592261904698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26989006696428502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26888430059523799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26907459077380902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26736690848214201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26705868675595201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26719308035714201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26643898809523803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26563550967261901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.25047042410714199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25047042410714199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25025353422619001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24890680803571399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.248712611607142</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24833556547619001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.24797581845238001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.248368303571428</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.23562704613095201</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22910026041666601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.184276041666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.9174107142857104E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summery!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
@@ -2280,358 +2632,6 @@
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Uniform Filters'!$B$2:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>52.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>53.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>57.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>58.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>59.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>60.7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>59.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>59.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>58.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>57.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>61.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>59.1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>61.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>62.1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>62.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>63.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>63.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>63.9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>62.7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>62.7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>62.9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>66.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>75.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Uniform Filters'!$E$2:$E$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>0.41024144345238001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.40796995907737998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40478887648809497</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.404586867559523</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.372921037946428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.37236281622023798</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37236281622023798</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.368317522321428</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.368674665178571</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.364460379464285</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.34821456473214202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34821456473214202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34673074776785701</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.34433807663690402</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.342974981398809</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.34277334449404701</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.34219038318452299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.34252483258928501</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.34240466889880899</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.33905217633928503</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.27663327752976102</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27451729910714201</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.27366610863095198</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.27236086309523799</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27116899181547599</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.27078915550595201</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27054817708333301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27116592261904698</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.26989006696428502</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.26888430059523799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.26907459077380902</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.26736690848214201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.26705868675595201</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.26719308035714201</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.26643898809523803</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.26563550967261901</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.25047042410714199</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.25047042410714199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.25025353422619001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.24890680803571399</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.248712611607142</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.24833556547619001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.24797581845238001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.248368303571428</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.23562704613095201</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.22910026041666601</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.184276041666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.9174107142857104E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summery!$E$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uniform Layer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3024,11 +3024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="541462856"/>
-        <c:axId val="458295488"/>
+        <c:axId val="414916152"/>
+        <c:axId val="414913800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="541462856"/>
+        <c:axId val="414916152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3143,12 +3143,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458295488"/>
+        <c:crossAx val="414913800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458295488"/>
+        <c:axId val="414913800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -3267,7 +3267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541462856"/>
+        <c:crossAx val="414916152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4539,9 +4539,9 @@
       <sheetName val="Alexnet_CIFAR10_ps2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="5">
           <cell r="A5" t="str">
@@ -4962,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Results/AlexNet_CIFAR10_PS2.xlsx
+++ b/doc/Results/AlexNet_CIFAR10_PS2.xlsx
@@ -1222,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414912232"/>
-        <c:axId val="414914584"/>
+        <c:axId val="333933648"/>
+        <c:axId val="333934824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414912232"/>
+        <c:axId val="333933648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1341,12 +1341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414914584"/>
+        <c:crossAx val="333934824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414914584"/>
+        <c:axId val="333934824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35000000000000003"/>
@@ -1460,7 +1460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414912232"/>
+        <c:crossAx val="333933648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1597,7 +1597,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17060282098883978"/>
+          <c:y val="2.3460410557184751E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3024,11 +3031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414916152"/>
-        <c:axId val="414913800"/>
+        <c:axId val="333933256"/>
+        <c:axId val="333935608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414916152"/>
+        <c:axId val="333933256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3143,12 +3150,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414913800"/>
+        <c:crossAx val="333935608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414913800"/>
+        <c:axId val="333935608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -3267,7 +3274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414916152"/>
+        <c:crossAx val="333933256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4464,16 +4471,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4497,15 +4504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4962,7 +4969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>

--- a/doc/Results/AlexNet_CIFAR10_PS2.xlsx
+++ b/doc/Results/AlexNet_CIFAR10_PS2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
@@ -1222,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333933648"/>
-        <c:axId val="333934824"/>
+        <c:axId val="468190296"/>
+        <c:axId val="468189904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333933648"/>
+        <c:axId val="468190296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1341,12 +1341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333934824"/>
+        <c:crossAx val="468189904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333934824"/>
+        <c:axId val="468189904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35000000000000003"/>
@@ -1460,7 +1460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333933648"/>
+        <c:crossAx val="468190296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3031,11 +3031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333933256"/>
-        <c:axId val="333935608"/>
+        <c:axId val="468185200"/>
+        <c:axId val="468185592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333933256"/>
+        <c:axId val="468185200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3150,12 +3150,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333935608"/>
+        <c:crossAx val="468185592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333935608"/>
+        <c:axId val="468185592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -3274,7 +3274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333933256"/>
+        <c:crossAx val="468185200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4969,7 +4969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
@@ -6699,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Results/AlexNet_CIFAR10_PS2.xlsx
+++ b/doc/Results/AlexNet_CIFAR10_PS2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna\OneDrive - Technion\Technion\Sem. 9\Proj2\doc\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoim\Desktop\Course\Project 2\doc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,7 +650,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -824,6 +824,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-449E-4D53-94C9-CED046D409E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -924,6 +929,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-449E-4D53-94C9-CED046D409E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1024,6 +1034,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-449E-4D53-94C9-CED046D409E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1124,6 +1139,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-449E-4D53-94C9-CED046D409E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1213,6 +1233,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-449E-4D53-94C9-CED046D409E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1542,7 +1567,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1955,6 +1980,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97D7-40F9-9441-126254C17A70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2253,6 +2283,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97D7-40F9-9441-126254C17A70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2605,6 +2640,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97D7-40F9-9441-126254C17A70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2933,6 +2973,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-97D7-40F9-9441-126254C17A70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3022,6 +3067,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-97D7-40F9-9441-126254C17A70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4509,10 +4559,10 @@
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4969,20 +5019,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>174</v>
       </c>
@@ -4990,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -5001,7 +5051,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -5009,7 +5059,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -5020,7 +5070,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>181</v>
       </c>
@@ -5028,7 +5078,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -5037,7 +5087,7 @@
         <v>13.199999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -5054,7 +5104,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5071,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.5</v>
       </c>
@@ -5088,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5105,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.5</v>
       </c>
@@ -5122,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5139,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -5156,7 +5206,7 @@
         <v>0.23619799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13.2</v>
       </c>
@@ -5187,16 +5237,16 @@
       <selection activeCell="E1" activeCellId="1" sqref="B1:B1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5213,7 +5263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5230,7 +5280,7 @@
         <v>0.48893024553571401</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5247,7 +5297,7 @@
         <v>0.48917159598214199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5314,7 @@
         <v>0.48892438616071399</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5281,7 +5331,7 @@
         <v>0.485356863839285</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5298,7 +5348,7 @@
         <v>0.48567103794642802</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5315,7 +5365,7 @@
         <v>0.45387630208333302</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5332,7 +5382,7 @@
         <v>0.45271335565476101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5349,7 +5399,7 @@
         <v>0.36898577008928501</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5366,7 +5416,7 @@
         <v>0.36474218749999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5383,7 +5433,7 @@
         <v>0.34853069196428499</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5400,7 +5450,7 @@
         <v>0.34703069196428499</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5417,7 +5467,7 @@
         <v>0.34452901785714202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -5434,7 +5484,7 @@
         <v>0.34330989583333299</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5451,7 +5501,7 @@
         <v>0.343014322916666</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5468,7 +5518,7 @@
         <v>0.34244996279761902</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5485,7 +5535,7 @@
         <v>0.34315978422618998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5502,7 +5552,7 @@
         <v>0.34254566592261898</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5519,7 +5569,7 @@
         <v>0.34197042410714201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5536,7 +5586,7 @@
         <v>0.27534951636904698</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -5553,7 +5603,7 @@
         <v>0.27463792782738</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -5570,7 +5620,7 @@
         <v>0.27452743675595198</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -5587,7 +5637,7 @@
         <v>0.27354361979166603</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -5604,7 +5654,7 @@
         <v>0.271560081845238</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -5621,7 +5671,7 @@
         <v>0.27163532366071402</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -5638,7 +5688,7 @@
         <v>0.27118666294642801</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -5655,7 +5705,7 @@
         <v>0.271245535714285</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5672,7 +5722,7 @@
         <v>0.27076329985119002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5689,7 +5739,7 @@
         <v>0.26834123883928501</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5706,7 +5756,7 @@
         <v>0.26763076636904698</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -5723,7 +5773,7 @@
         <v>0.26785286458333302</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -5740,7 +5790,7 @@
         <v>0.267226283482142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -5757,7 +5807,7 @@
         <v>0.26727241443452299</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5774,7 +5824,7 @@
         <v>0.26658900669642799</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -5791,7 +5841,7 @@
         <v>0.265750837053571</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -5808,7 +5858,7 @@
         <v>0.25066666666666598</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -5825,7 +5875,7 @@
         <v>0.250447730654761</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -5842,7 +5892,7 @@
         <v>0.24921279761904699</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -5859,7 +5909,7 @@
         <v>0.24900223214285699</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -5876,7 +5926,7 @@
         <v>0.24859877232142799</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -5893,7 +5943,7 @@
         <v>0.24895386904761899</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -5910,7 +5960,7 @@
         <v>0.23619828869047599</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -5927,7 +5977,7 @@
         <v>0.22968284970238001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -5944,7 +5994,7 @@
         <v>0.18498642113095201</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -5961,7 +6011,7 @@
         <v>8.9549665178571394E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -5988,12 +6038,12 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6010,7 +6060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6027,7 +6077,7 @@
         <v>0.41102362351190402</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6044,7 +6094,7 @@
         <v>0.40721186755952299</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6061,7 +6111,7 @@
         <v>0.40094494047619</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -6078,7 +6128,7 @@
         <v>0.40002901785714201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -6095,7 +6145,7 @@
         <v>0.39608789062499999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -6112,7 +6162,7 @@
         <v>0.389939546130952</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -6129,7 +6179,7 @@
         <v>0.38565420386904697</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -6146,7 +6196,7 @@
         <v>0.38216462053571398</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -6163,7 +6213,7 @@
         <v>0.37790857514880899</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -6180,7 +6230,7 @@
         <v>0.37199869791666601</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -6197,7 +6247,7 @@
         <v>0.37067020089285702</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -6214,7 +6264,7 @@
         <v>0.36996819196428499</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -6231,7 +6281,7 @@
         <v>0.36904129464285701</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -6248,7 +6298,7 @@
         <v>0.36727334449404703</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -6265,7 +6315,7 @@
         <v>0.36489239211309499</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -6282,7 +6332,7 @@
         <v>0.36245563616071402</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -6299,7 +6349,7 @@
         <v>0.30914741443452298</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -6316,7 +6366,7 @@
         <v>0.305333519345238</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -6333,7 +6383,7 @@
         <v>0.30267912946428499</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -6350,7 +6400,7 @@
         <v>0.30007059151785698</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -6367,7 +6417,7 @@
         <v>0.29874479166666601</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -6384,7 +6434,7 @@
         <v>0.289525111607142</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -6401,7 +6451,7 @@
         <v>0.28394763764880898</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -6418,7 +6468,7 @@
         <v>0.27975037202380898</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -6435,7 +6485,7 @@
         <v>0.26869038318452299</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -6452,7 +6502,7 @@
         <v>0.26615011160714203</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -6469,7 +6519,7 @@
         <v>0.26522321428571399</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -6486,7 +6536,7 @@
         <v>0.24161755952380901</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -6503,7 +6553,7 @@
         <v>0.239281808035714</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -6520,7 +6570,7 @@
         <v>0.23781091889880901</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -6537,7 +6587,7 @@
         <v>0.23535398065476101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -6554,7 +6604,7 @@
         <v>0.234107886904761</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -6571,7 +6621,7 @@
         <v>0.23214639136904699</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -6588,7 +6638,7 @@
         <v>0.22994103422619</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -6605,7 +6655,7 @@
         <v>0.22880059523809501</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -6622,7 +6672,7 @@
         <v>0.22807180059523799</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -6639,7 +6689,7 @@
         <v>0.226488467261904</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -6656,7 +6706,7 @@
         <v>0.22081249999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6673,7 +6723,7 @@
         <v>0.18023958333333301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -6699,13 +6749,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6722,7 +6772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6739,7 +6789,7 @@
         <v>0.40970870535714199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -6756,7 +6806,7 @@
         <v>0.40818759300595198</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -6773,7 +6823,7 @@
         <v>0.399213634672619</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -6790,7 +6840,7 @@
         <v>0.39797572544642801</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -6807,7 +6857,7 @@
         <v>0.395206101190476</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -6824,7 +6874,7 @@
         <v>0.39316276041666598</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -6841,7 +6891,7 @@
         <v>0.39097767857142801</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -6858,7 +6908,7 @@
         <v>0.38802539062500002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -6875,7 +6925,7 @@
         <v>0.37679827008928501</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -6892,7 +6942,7 @@
         <v>0.37293377976190401</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -6909,7 +6959,7 @@
         <v>0.36699414062500002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -6926,7 +6976,7 @@
         <v>0.36149841889880902</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -6943,7 +6993,7 @@
         <v>0.35533919270833297</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -6960,7 +7010,7 @@
         <v>0.35032356770833301</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -6977,7 +7027,7 @@
         <v>0.34456845238095202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6994,7 +7044,7 @@
         <v>0.33309272693452302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -7011,7 +7061,7 @@
         <v>0.32818480282738</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -7028,7 +7078,7 @@
         <v>0.326529017857142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -7045,7 +7095,7 @@
         <v>0.28267336309523799</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -7062,7 +7112,7 @@
         <v>0.27750009300595202</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -7079,7 +7129,7 @@
         <v>0.27481956845238098</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -7096,7 +7146,7 @@
         <v>0.27191266741071402</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -7113,7 +7163,7 @@
         <v>0.26904278273809501</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -7130,7 +7180,7 @@
         <v>0.26731463913690401</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -7147,7 +7197,7 @@
         <v>0.266052455357142</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -7164,7 +7214,7 @@
         <v>0.26468229166666601</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -7181,7 +7231,7 @@
         <v>0.26339183407737998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -7198,7 +7248,7 @@
         <v>0.26275418526785699</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -7215,7 +7265,7 @@
         <v>0.26000883556547599</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -7232,7 +7282,7 @@
         <v>0.23599460565476099</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -7249,7 +7299,7 @@
         <v>0.23438430059523799</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -7266,7 +7316,7 @@
         <v>0.232853050595238</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -7283,7 +7333,7 @@
         <v>0.23094568452380901</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -7300,7 +7350,7 @@
         <v>0.22969066220237999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -7317,7 +7367,7 @@
         <v>0.22863541666666601</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -7334,7 +7384,7 @@
         <v>0.227014508928571</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -7351,7 +7401,7 @@
         <v>0.22597860863095201</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -7368,7 +7418,7 @@
         <v>0.22488913690476101</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -7385,7 +7435,7 @@
         <v>0.224262276785714</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -7402,7 +7452,7 @@
         <v>0.222821428571428</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -7419,7 +7469,7 @@
         <v>0.21707477678571399</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -7436,7 +7486,7 @@
         <v>0.17598084077380899</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -7466,9 +7516,9 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7485,7 +7535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7502,7 +7552,7 @@
         <v>0.41024144345238001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -7519,7 +7569,7 @@
         <v>0.40796995907737998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -7536,7 +7586,7 @@
         <v>0.40478887648809497</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -7553,7 +7603,7 @@
         <v>0.404586867559523</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -7570,7 +7620,7 @@
         <v>0.372921037946428</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -7587,7 +7637,7 @@
         <v>0.37236281622023798</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -7604,7 +7654,7 @@
         <v>0.37236281622023798</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -7621,7 +7671,7 @@
         <v>0.368317522321428</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -7638,7 +7688,7 @@
         <v>0.368674665178571</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -7655,7 +7705,7 @@
         <v>0.364460379464285</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -7672,7 +7722,7 @@
         <v>0.34821456473214202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -7689,7 +7739,7 @@
         <v>0.34821456473214202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -7706,7 +7756,7 @@
         <v>0.34673074776785701</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -7723,7 +7773,7 @@
         <v>0.34433807663690402</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -7740,7 +7790,7 @@
         <v>0.342974981398809</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -7757,7 +7807,7 @@
         <v>0.34277334449404701</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -7774,7 +7824,7 @@
         <v>0.34219038318452299</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -7791,7 +7841,7 @@
         <v>0.34252483258928501</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -7808,7 +7858,7 @@
         <v>0.34240466889880899</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -7825,7 +7875,7 @@
         <v>0.33905217633928503</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -7842,7 +7892,7 @@
         <v>0.27663327752976102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -7859,7 +7909,7 @@
         <v>0.27451729910714201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -7876,7 +7926,7 @@
         <v>0.27366610863095198</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -7893,7 +7943,7 @@
         <v>0.27236086309523799</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -7910,7 +7960,7 @@
         <v>0.27116899181547599</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -7927,7 +7977,7 @@
         <v>0.27078915550595201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7944,7 +7994,7 @@
         <v>0.27054817708333301</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -7961,7 +8011,7 @@
         <v>0.27116592261904698</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -7978,7 +8028,7 @@
         <v>0.26989006696428502</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -7995,7 +8045,7 @@
         <v>0.26888430059523799</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -8012,7 +8062,7 @@
         <v>0.26907459077380902</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -8029,7 +8079,7 @@
         <v>0.26736690848214201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -8046,7 +8096,7 @@
         <v>0.26705868675595201</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -8063,7 +8113,7 @@
         <v>0.26719308035714201</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -8080,7 +8130,7 @@
         <v>0.26643898809523803</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -8097,7 +8147,7 @@
         <v>0.26563550967261901</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -8114,7 +8164,7 @@
         <v>0.25047042410714199</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -8131,7 +8181,7 @@
         <v>0.25047042410714199</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>164</v>
       </c>
@@ -8148,7 +8198,7 @@
         <v>0.25025353422619001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -8165,7 +8215,7 @@
         <v>0.24890680803571399</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -8182,7 +8232,7 @@
         <v>0.248712611607142</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -8199,7 +8249,7 @@
         <v>0.24833556547619001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -8216,7 +8266,7 @@
         <v>0.24797581845238001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -8233,7 +8283,7 @@
         <v>0.248368303571428</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -8250,7 +8300,7 @@
         <v>0.23562704613095201</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -8267,7 +8317,7 @@
         <v>0.22910026041666601</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -8284,7 +8334,7 @@
         <v>0.184276041666666</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -8301,7 +8351,7 @@
         <v>8.9174107142857104E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>173</v>
       </c>

--- a/doc/Results/AlexNet_CIFAR10_PS2.xlsx
+++ b/doc/Results/AlexNet_CIFAR10_PS2.xlsx
@@ -601,6 +601,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,8 +633,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,13 +674,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -703,13 +713,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -740,27 +756,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -845,27 +897,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -940,7 +1028,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Alexnet_CIFAR10_ps2!$D$11</c:f>
+              <c:f>Summery!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -950,32 +1038,68 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Alexnet_CIFAR10_ps2!$A$12:$A$18</c:f>
+              <c:f>Summery!$A$12:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -989,7 +1113,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -1005,29 +1129,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Alexnet_CIFAR10_ps2!$D$12:$D$18</c:f>
+              <c:f>Summery!$D$12:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.9174107142857104E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.9174107142857104E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                  <c:v>8.9174107142857104E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>0.184276</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
                   <c:v>0.184276</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="General">
                   <c:v>0.235627</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="General">
                   <c:v>0.25025399999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1055,27 +1179,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1160,14 +1320,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1180,11 +1345,12 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -1198,11 +1364,12 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -1263,9 +1430,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1280,11 +1447,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1313,11 +1479,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1337,12 +1502,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1353,9 +1516,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1382,9 +1544,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1399,11 +1561,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1432,11 +1593,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1456,12 +1616,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1472,9 +1630,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1498,7 +1655,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1515,9 +1672,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1534,17 +1690,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1587,11 +1754,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1600,10 +1766,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Layer Quantizer Optimization</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Mode Breakdown</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1611,14 +1775,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>AlexNet, CIFAR10, Patch Size = 2</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1626,8 +1785,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17060282098883978"/>
-          <c:y val="2.3460410557184751E-2"/>
+          <c:x val="0.33386806241056594"/>
+          <c:y val="2.6602193591893551E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1643,11 +1802,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1680,28 +1838,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2001,28 +2153,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2304,28 +2450,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2631,10 +2771,10 @@
                   <c:v>0.184276041666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>9.8474702380952378E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>8.9174107142857104E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,28 +2801,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2994,36 +3128,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="0"/>
-            <c:val val="100"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -3032,11 +3155,10 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -3097,9 +3219,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3114,11 +3237,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3147,11 +3269,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3171,9 +3292,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3187,9 +3307,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3216,9 +3335,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3233,11 +3353,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3247,13 +3366,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Operations</a:t>
+                  <a:t>Operations Saved</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Saved</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3271,11 +3385,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3295,9 +3408,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3311,9 +3423,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3337,8 +3448,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5794403250614084E-2"/>
+          <c:y val="0.15136659780512174"/>
+          <c:w val="0.87674938591859686"/>
+          <c:h val="5.22625167622962E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3354,9 +3474,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3374,11 +3493,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3486,62 +3608,66 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3550,9 +3676,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3571,14 +3696,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3587,20 +3704,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3609,13 +3726,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3627,9 +3744,89 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3637,12 +3834,483 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3666,21 +4334,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3690,20 +4355,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3715,14 +4379,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3734,14 +4397,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3753,14 +4415,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3772,9 +4428,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3791,9 +4448,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3805,14 +4463,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3824,14 +4481,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3843,27 +4499,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3871,9 +4526,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3883,14 +4537,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3902,12 +4555,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3916,14 +4568,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3932,9 +4585,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3944,17 +4596,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3966,553 +4619,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5019,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5114,8 +5244,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" s="1">
+        <v>8.9174107142857104E-2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5131,8 +5261,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" s="1">
+        <v>8.9174107142857104E-2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5148,8 +5278,8 @@
       <c r="C14">
         <v>9.5907999999999993E-2</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" s="1">
+        <v>8.9174107142857104E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5157,7 +5287,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>0.23094600000000001</v>
@@ -5233,8 +5363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="B1:B1048576 E1:E1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6037,7 +6167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -7512,8 +7642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8342,13 +8472,14 @@
         <v>72.5</v>
       </c>
       <c r="C49">
-        <v>958800</v>
+        <v>1058800</v>
       </c>
       <c r="D49">
         <v>10752000</v>
       </c>
       <c r="E49">
-        <v>8.9174107142857104E-2</v>
+        <f>C49/D49</f>
+        <v>9.8474702380952378E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -8359,13 +8490,13 @@
         <v>75.8</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>958800</v>
       </c>
       <c r="D50">
         <v>10752000</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>8.9174107142857104E-2</v>
       </c>
     </row>
   </sheetData>
